--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F705CA59-6678-49B2-BB18-B692B4DD5284}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53464C78-CC4F-4F8F-B7BA-3948CFABB4E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
@@ -36,31 +36,31 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>FirstName4</t>
-  </si>
-  <si>
-    <t>LastName4</t>
-  </si>
-  <si>
-    <t>ncitester4@nih.gov</t>
-  </si>
-  <si>
-    <t>FirstName5</t>
-  </si>
-  <si>
-    <t>LastName5</t>
-  </si>
-  <si>
-    <t>ncitester5@nih.gov</t>
-  </si>
-  <si>
-    <t>FirstName6</t>
-  </si>
-  <si>
-    <t>LastName6</t>
-  </si>
-  <si>
-    <t>ncitester6@nih.gov</t>
+    <t>FirstName7</t>
+  </si>
+  <si>
+    <t>FirstName8</t>
+  </si>
+  <si>
+    <t>FirstName9</t>
+  </si>
+  <si>
+    <t>LastName7</t>
+  </si>
+  <si>
+    <t>LastName8</t>
+  </si>
+  <si>
+    <t>LastName9</t>
+  </si>
+  <si>
+    <t>ncitester9@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester8@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester7@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,36 +458,36 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>

--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53464C78-CC4F-4F8F-B7BA-3948CFABB4E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F1EAF85-15BB-4C07-ADB4-F4A5F8274DAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -61,6 +62,33 @@
   </si>
   <si>
     <t>ncitester7@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName10</t>
+  </si>
+  <si>
+    <t>LastName10</t>
+  </si>
+  <si>
+    <t>FirstName11</t>
+  </si>
+  <si>
+    <t>LastName11</t>
+  </si>
+  <si>
+    <t>FirstName12</t>
+  </si>
+  <si>
+    <t>LastName12</t>
+  </si>
+  <si>
+    <t>ncitester10@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester11@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester12@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -433,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA39A329-6152-4228-BB00-3045803FBC95}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,4 +528,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC8B57-63F8-4343-BFCF-87D1868EA91A}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{411AEA32-F4F9-4805-8391-FB8A0F043C3F}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{DDCED687-05EE-4A5B-B4ED-10AB53BDAA9A}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{FA84B9A5-073E-4A50-B1AE-817B2B6EF72F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F1EAF85-15BB-4C07-ADB4-F4A5F8274DAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{400E1B7F-7723-4ACD-B860-9C2E1CDD14EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
@@ -64,12 +64,6 @@
     <t>ncitester7@nih.gov</t>
   </si>
   <si>
-    <t>FirstName10</t>
-  </si>
-  <si>
-    <t>LastName10</t>
-  </si>
-  <si>
     <t>FirstName11</t>
   </si>
   <si>
@@ -82,13 +76,19 @@
     <t>LastName12</t>
   </si>
   <si>
-    <t>ncitester10@nih.gov</t>
-  </si>
-  <si>
     <t>ncitester11@nih.gov</t>
   </si>
   <si>
     <t>ncitester12@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName13</t>
+  </si>
+  <si>
+    <t>LastName13</t>
+  </si>
+  <si>
+    <t>ncitester13@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -578,29 +578,27 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{411AEA32-F4F9-4805-8391-FB8A0F043C3F}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{DDCED687-05EE-4A5B-B4ED-10AB53BDAA9A}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{FA84B9A5-073E-4A50-B1AE-817B2B6EF72F}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{DDCED687-05EE-4A5B-B4ED-10AB53BDAA9A}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FA84B9A5-073E-4A50-B1AE-817B2B6EF72F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{DA0B10EE-A1FE-4006-AF1E-2EDC430E093D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{400E1B7F-7723-4ACD-B860-9C2E1CDD14EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBD02D44-7F4A-4DA3-A774-1C8E153ED250}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>FirstName</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>ncitester13@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName14</t>
+  </si>
+  <si>
+    <t>LastName14</t>
+  </si>
+  <si>
+    <t>ncitester14@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC8B57-63F8-4343-BFCF-87D1868EA91A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,11 +603,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{DDCED687-05EE-4A5B-B4ED-10AB53BDAA9A}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{FA84B9A5-073E-4A50-B1AE-817B2B6EF72F}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{DA0B10EE-A1FE-4006-AF1E-2EDC430E093D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E7A9FAF5-6492-4D17-B8B7-6615E45EBDAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaurs3\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{400E1B7F-7723-4ACD-B860-9C2E1CDD14EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{256C9F8D-81CA-4CDA-81FD-967D8F319735}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
@@ -76,19 +76,19 @@
     <t>LastName12</t>
   </si>
   <si>
-    <t>ncitester11@nih.gov</t>
-  </si>
-  <si>
-    <t>ncitester12@nih.gov</t>
-  </si>
-  <si>
     <t>FirstName13</t>
   </si>
   <si>
     <t>LastName13</t>
   </si>
   <si>
-    <t>ncitester13@nih.gov</t>
+    <t>ncitester15@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester16@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester17@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -578,17 +578,17 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>

--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaurs3\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BB66CB8-458A-42A7-B84D-ADFFA5C2B0D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0D10B-B711-4B5D-B36F-9E81F341DC2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>LastName13</t>
   </si>
   <si>
-    <t>ncitester15@nih.gov</t>
-  </si>
-  <si>
-    <t>ncitester16@nih.gov</t>
-  </si>
-  <si>
-    <t>ncitester17@nih.gov</t>
+    <t>ncitester11@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester12@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester13@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0D10B-B711-4B5D-B36F-9E81F341DC2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59BC3D5-193B-4859-AF3D-030CD0729FF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>FirstName</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>ncitester13@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName14</t>
+  </si>
+  <si>
+    <t>LastName14</t>
+  </si>
+  <si>
+    <t>ncitester14@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC8B57-63F8-4343-BFCF-87D1868EA91A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +555,7 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -567,10 +576,8 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -580,10 +587,8 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -592,6 +597,17 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -599,6 +615,7 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{DDCED687-05EE-4A5B-B4ED-10AB53BDAA9A}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{FA84B9A5-073E-4A50-B1AE-817B2B6EF72F}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{DA0B10EE-A1FE-4006-AF1E-2EDC430E093D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6E380EA7-D7CB-4B7E-B3FD-0EEE3DAD367A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataOne-Registration.Sami.xlsx
+++ b/DataOne-Registration.Sami.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59BC3D5-193B-4859-AF3D-030CD0729FF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281ED1E2-4087-4A75-B594-E288BBD08E07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
+    <workbookView xWindow="35126" yWindow="1920" windowWidth="28800" windowHeight="15497" activeTab="1" xr2:uid="{8B883429-13CF-4D4F-8813-CE891B7D6AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>FirstName</t>
   </si>
@@ -98,6 +98,114 @@
   </si>
   <si>
     <t>ncitester14@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName15</t>
+  </si>
+  <si>
+    <t>LastName15</t>
+  </si>
+  <si>
+    <t>ncitester15@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName16</t>
+  </si>
+  <si>
+    <t>LastName16</t>
+  </si>
+  <si>
+    <t>ncitester16@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName17</t>
+  </si>
+  <si>
+    <t>LastName17</t>
+  </si>
+  <si>
+    <t>ncitester17@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName18</t>
+  </si>
+  <si>
+    <t>LastName18</t>
+  </si>
+  <si>
+    <t>ncitester18@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName19</t>
+  </si>
+  <si>
+    <t>LastName19</t>
+  </si>
+  <si>
+    <t>ncitester19@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName20</t>
+  </si>
+  <si>
+    <t>LastName20</t>
+  </si>
+  <si>
+    <t>ncitester20@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName21</t>
+  </si>
+  <si>
+    <t>LastName21</t>
+  </si>
+  <si>
+    <t>ncitester21@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName22</t>
+  </si>
+  <si>
+    <t>LastName22</t>
+  </si>
+  <si>
+    <t>ncitester22@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName23</t>
+  </si>
+  <si>
+    <t>LastName23</t>
+  </si>
+  <si>
+    <t>ncitester23@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName24</t>
+  </si>
+  <si>
+    <t>LastName24</t>
+  </si>
+  <si>
+    <t>ncitester24@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName25</t>
+  </si>
+  <si>
+    <t>LastName25</t>
+  </si>
+  <si>
+    <t>ncitester25@nih.gov</t>
+  </si>
+  <si>
+    <t>FirstName26</t>
+  </si>
+  <si>
+    <t>LastName26</t>
+  </si>
+  <si>
+    <t>ncitester26@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -541,10 +649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC8B57-63F8-4343-BFCF-87D1868EA91A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,12 +718,156 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{DDCED687-05EE-4A5B-B4ED-10AB53BDAA9A}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{FA84B9A5-073E-4A50-B1AE-817B2B6EF72F}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{DA0B10EE-A1FE-4006-AF1E-2EDC430E093D}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{6E380EA7-D7CB-4B7E-B3FD-0EEE3DAD367A}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{38933751-7029-4BEA-8808-55C9E2C1C26D}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{28EDD75E-1777-4969-8AF1-329E18F23DDF}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{AE947BAA-8291-4C57-96E1-FBCBECEF55EB}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{812044D5-C6B1-478A-AF75-BA6D2925D6DF}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{A66F3F6D-64CA-459E-99BB-0A91506AB39D}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{BF8C50CC-1C08-4E7F-903F-A45B317AF0E8}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{9D5F0996-2901-466E-9D93-8193E4705C1A}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{1AEF3F33-6B9F-44A5-8585-ECCC3791B28B}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{31A6C0BE-2DD4-41F3-A2CD-FB856BA97B55}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{6D6744B2-F6DE-4C9A-9619-4CFE67283AB9}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{B9D30CF6-11E7-4CD6-A449-7062CACB9E62}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{8AB47A2C-F883-4A85-AB7B-E7927D64A705}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
